--- a/more/First&Follow_Table.xlsx
+++ b/more/First&Follow_Table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/loicbermudez/Documents/ULB_PROJECT/INFOF403_part2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/loicbermudez/Documents/ULB_PROJECT/Project-INFOF403-part2/more/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C9D37B-C834-EE45-9641-C79C18836B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ECDD38B-377F-4A4F-AF6D-B1CDA7F738B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-300" yWindow="5640" windowWidth="28800" windowHeight="10940" xr2:uid="{627F729E-ECEB-BF43-ABEE-9FAA9F5BEC1D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{627F729E-ECEB-BF43-ABEE-9FAA9F5BEC1D}"/>
   </bookViews>
   <sheets>
     <sheet name="First Follow" sheetId="1" r:id="rId1"/>
@@ -467,7 +467,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -517,15 +517,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -842,8 +842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57709E4C-730F-BA46-AE93-294B0998CF8B}">
   <dimension ref="B3:AC22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="AC21" sqref="AC21"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="T27" sqref="T27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -972,31 +972,31 @@
       <c r="F5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="5">
         <v>1</v>
       </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18"/>
-      <c r="V5" s="18"/>
-      <c r="W5" s="18"/>
-      <c r="X5" s="18"/>
-      <c r="Y5" s="18"/>
-      <c r="Z5" s="18"/>
-      <c r="AA5" s="18"/>
-      <c r="AB5" s="18"/>
-      <c r="AC5" s="21"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="17"/>
+      <c r="AA5" s="17"/>
+      <c r="AB5" s="17"/>
+      <c r="AC5" s="12"/>
     </row>
     <row r="6" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B6" s="10" t="s">
@@ -1011,41 +1011,41 @@
       <c r="F6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17">
+      <c r="G6" s="6"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18">
         <v>3</v>
       </c>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17">
+      <c r="J6" s="18"/>
+      <c r="K6" s="18">
         <v>2</v>
       </c>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17">
+      <c r="L6" s="18"/>
+      <c r="M6" s="18">
         <v>2</v>
       </c>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17">
+      <c r="N6" s="18"/>
+      <c r="O6" s="18">
         <v>3</v>
       </c>
-      <c r="P6" s="17">
+      <c r="P6" s="18">
         <v>2</v>
       </c>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="17"/>
-      <c r="X6" s="17"/>
-      <c r="Y6" s="17"/>
-      <c r="Z6" s="17"/>
-      <c r="AA6" s="17"/>
-      <c r="AB6" s="17">
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
+      <c r="X6" s="18"/>
+      <c r="Y6" s="18"/>
+      <c r="Z6" s="18"/>
+      <c r="AA6" s="18"/>
+      <c r="AB6" s="18">
         <v>2</v>
       </c>
-      <c r="AC6" s="22">
+      <c r="AC6" s="13">
         <v>2</v>
       </c>
     </row>
@@ -1062,35 +1062,35 @@
       <c r="F7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17">
+      <c r="G7" s="6"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18">
         <v>5</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J7" s="18">
         <v>4</v>
       </c>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17">
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18">
         <v>5</v>
       </c>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="17"/>
-      <c r="X7" s="17"/>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="17"/>
-      <c r="AA7" s="17"/>
-      <c r="AB7" s="17"/>
-      <c r="AC7" s="22"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="18"/>
+      <c r="Y7" s="18"/>
+      <c r="Z7" s="18"/>
+      <c r="AA7" s="18"/>
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="13"/>
     </row>
     <row r="8" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B8" s="10" t="s">
@@ -1105,37 +1105,37 @@
       <c r="F8" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17">
+      <c r="G8" s="6"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18">
         <v>6</v>
       </c>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17">
+      <c r="L8" s="18"/>
+      <c r="M8" s="18">
         <v>7</v>
       </c>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17">
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18">
         <v>8</v>
       </c>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="17"/>
-      <c r="W8" s="17"/>
-      <c r="X8" s="17"/>
-      <c r="Y8" s="17"/>
-      <c r="Z8" s="17"/>
-      <c r="AA8" s="17"/>
-      <c r="AB8" s="17">
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18"/>
+      <c r="X8" s="18"/>
+      <c r="Y8" s="18"/>
+      <c r="Z8" s="18"/>
+      <c r="AA8" s="18"/>
+      <c r="AB8" s="18">
         <v>9</v>
       </c>
-      <c r="AC8" s="22">
+      <c r="AC8" s="13">
         <v>10</v>
       </c>
     </row>
@@ -1152,31 +1152,31 @@
       <c r="F9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="20"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17">
+      <c r="G9" s="6"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18">
         <v>11</v>
       </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17"/>
-      <c r="W9" s="17"/>
-      <c r="X9" s="17"/>
-      <c r="Y9" s="17"/>
-      <c r="Z9" s="17"/>
-      <c r="AA9" s="17"/>
-      <c r="AB9" s="17"/>
-      <c r="AC9" s="22"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="18"/>
+      <c r="X9" s="18"/>
+      <c r="Y9" s="18"/>
+      <c r="Z9" s="18"/>
+      <c r="AA9" s="18"/>
+      <c r="AB9" s="18"/>
+      <c r="AC9" s="13"/>
     </row>
     <row r="10" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B10" s="10" t="s">
@@ -1191,31 +1191,31 @@
       <c r="F10" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="20"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17">
+      <c r="G10" s="6"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18">
         <v>12</v>
       </c>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
-      <c r="X10" s="17"/>
-      <c r="Y10" s="17"/>
-      <c r="Z10" s="17"/>
-      <c r="AA10" s="17"/>
-      <c r="AB10" s="17"/>
-      <c r="AC10" s="22"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="18"/>
+      <c r="W10" s="18"/>
+      <c r="X10" s="18"/>
+      <c r="Y10" s="18"/>
+      <c r="Z10" s="18"/>
+      <c r="AA10" s="18"/>
+      <c r="AB10" s="18"/>
+      <c r="AC10" s="13"/>
     </row>
     <row r="11" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B11" s="10" t="s">
@@ -1230,33 +1230,33 @@
       <c r="F11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="20"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17">
+      <c r="G11" s="6"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18">
         <v>13</v>
       </c>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17">
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18">
         <v>14</v>
       </c>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="17"/>
-      <c r="W11" s="17"/>
-      <c r="X11" s="17"/>
-      <c r="Y11" s="17"/>
-      <c r="Z11" s="17"/>
-      <c r="AA11" s="17"/>
-      <c r="AB11" s="17"/>
-      <c r="AC11" s="22"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="18"/>
+      <c r="W11" s="18"/>
+      <c r="X11" s="18"/>
+      <c r="Y11" s="18"/>
+      <c r="Z11" s="18"/>
+      <c r="AA11" s="18"/>
+      <c r="AB11" s="18"/>
+      <c r="AC11" s="13"/>
     </row>
     <row r="12" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B12" s="10" t="s">
@@ -1271,31 +1271,31 @@
       <c r="F12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="20"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17">
+      <c r="G12" s="6"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18">
         <v>15</v>
       </c>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="17"/>
-      <c r="W12" s="17"/>
-      <c r="X12" s="17"/>
-      <c r="Y12" s="17"/>
-      <c r="Z12" s="17"/>
-      <c r="AA12" s="17"/>
-      <c r="AB12" s="17"/>
-      <c r="AC12" s="22"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="18"/>
+      <c r="W12" s="18"/>
+      <c r="X12" s="18"/>
+      <c r="Y12" s="18"/>
+      <c r="Z12" s="18"/>
+      <c r="AA12" s="18"/>
+      <c r="AB12" s="18"/>
+      <c r="AC12" s="13"/>
     </row>
     <row r="13" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B13" s="10" t="s">
@@ -1310,37 +1310,37 @@
       <c r="F13" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="20"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17">
+      <c r="G13" s="6"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18">
         <v>16</v>
       </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17">
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="18">
         <v>16</v>
       </c>
-      <c r="W13" s="17"/>
-      <c r="X13" s="17"/>
-      <c r="Y13" s="17">
+      <c r="W13" s="18"/>
+      <c r="X13" s="18"/>
+      <c r="Y13" s="18">
         <v>16</v>
       </c>
-      <c r="Z13" s="17"/>
-      <c r="AA13" s="17">
+      <c r="Z13" s="18"/>
+      <c r="AA13" s="18">
         <v>16</v>
       </c>
-      <c r="AB13" s="17"/>
-      <c r="AC13" s="22"/>
+      <c r="AB13" s="18"/>
+      <c r="AC13" s="13"/>
     </row>
     <row r="14" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B14" s="10" t="s">
@@ -1355,35 +1355,35 @@
       <c r="F14" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="20"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17">
+      <c r="G14" s="6"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18">
         <v>17</v>
       </c>
-      <c r="S14" s="17">
+      <c r="S14" s="18">
         <v>18</v>
       </c>
-      <c r="T14" s="17">
+      <c r="T14" s="18">
         <v>19</v>
       </c>
-      <c r="U14" s="17"/>
-      <c r="V14" s="17"/>
-      <c r="W14" s="17"/>
-      <c r="X14" s="17"/>
-      <c r="Y14" s="17"/>
-      <c r="Z14" s="17"/>
-      <c r="AA14" s="17"/>
-      <c r="AB14" s="17"/>
-      <c r="AC14" s="22"/>
+      <c r="U14" s="18"/>
+      <c r="V14" s="18"/>
+      <c r="W14" s="18"/>
+      <c r="X14" s="18"/>
+      <c r="Y14" s="18"/>
+      <c r="Z14" s="18"/>
+      <c r="AA14" s="18"/>
+      <c r="AB14" s="18"/>
+      <c r="AC14" s="13"/>
     </row>
     <row r="15" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B15" s="10" t="s">
@@ -1398,37 +1398,37 @@
       <c r="F15" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="20"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17">
+      <c r="G15" s="6"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18">
         <v>20</v>
       </c>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="17"/>
-      <c r="V15" s="17">
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="18">
         <v>20</v>
       </c>
-      <c r="W15" s="17"/>
-      <c r="X15" s="17"/>
-      <c r="Y15" s="17">
+      <c r="W15" s="18"/>
+      <c r="X15" s="18"/>
+      <c r="Y15" s="18">
         <v>20</v>
       </c>
-      <c r="Z15" s="17"/>
-      <c r="AA15" s="17">
+      <c r="Z15" s="18"/>
+      <c r="AA15" s="18">
         <v>20</v>
       </c>
-      <c r="AB15" s="17"/>
-      <c r="AC15" s="22"/>
+      <c r="AB15" s="18"/>
+      <c r="AC15" s="13"/>
     </row>
     <row r="16" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B16" s="10" t="s">
@@ -1443,47 +1443,47 @@
       <c r="F16" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="20"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17">
+      <c r="G16" s="6"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18">
         <v>23</v>
       </c>
-      <c r="J16" s="17">
+      <c r="J16" s="18">
         <v>23</v>
       </c>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17">
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18">
         <v>23</v>
       </c>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17">
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18">
         <v>23</v>
       </c>
-      <c r="S16" s="17">
+      <c r="S16" s="18">
         <v>23</v>
       </c>
-      <c r="T16" s="17">
+      <c r="T16" s="18">
         <v>23</v>
       </c>
-      <c r="U16" s="17">
+      <c r="U16" s="18">
         <v>21</v>
       </c>
-      <c r="V16" s="17">
+      <c r="V16" s="18">
         <v>22</v>
       </c>
-      <c r="W16" s="17"/>
-      <c r="X16" s="17"/>
-      <c r="Y16" s="17"/>
-      <c r="Z16" s="17">
+      <c r="W16" s="18"/>
+      <c r="X16" s="18"/>
+      <c r="Y16" s="18"/>
+      <c r="Z16" s="18">
         <v>23</v>
       </c>
-      <c r="AA16" s="17"/>
-      <c r="AB16" s="17"/>
-      <c r="AC16" s="22"/>
+      <c r="AA16" s="18"/>
+      <c r="AB16" s="18"/>
+      <c r="AC16" s="13"/>
     </row>
     <row r="17" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B17" s="10" t="s">
@@ -1498,37 +1498,37 @@
       <c r="F17" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="20"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17">
+      <c r="G17" s="6"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18">
         <v>24</v>
       </c>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
-      <c r="U17" s="17"/>
-      <c r="V17" s="17">
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="18"/>
+      <c r="U17" s="18"/>
+      <c r="V17" s="18">
         <v>24</v>
       </c>
-      <c r="W17" s="17"/>
-      <c r="X17" s="17"/>
-      <c r="Y17" s="17">
+      <c r="W17" s="18"/>
+      <c r="X17" s="18"/>
+      <c r="Y17" s="18">
         <v>24</v>
       </c>
-      <c r="Z17" s="17"/>
-      <c r="AA17" s="17">
+      <c r="Z17" s="18"/>
+      <c r="AA17" s="18">
         <v>24</v>
       </c>
-      <c r="AB17" s="17"/>
-      <c r="AC17" s="22"/>
+      <c r="AB17" s="18"/>
+      <c r="AC17" s="13"/>
     </row>
     <row r="18" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B18" s="10" t="s">
@@ -1543,51 +1543,51 @@
       <c r="F18" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="20"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17">
+      <c r="G18" s="6"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18">
         <v>27</v>
       </c>
-      <c r="J18" s="17">
+      <c r="J18" s="18">
         <v>27</v>
       </c>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17">
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18">
         <v>27</v>
       </c>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="17">
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18">
         <v>27</v>
       </c>
-      <c r="S18" s="17">
+      <c r="S18" s="18">
         <v>27</v>
       </c>
-      <c r="T18" s="17">
+      <c r="T18" s="18">
         <v>27</v>
       </c>
-      <c r="U18" s="17">
+      <c r="U18" s="18">
         <v>27</v>
       </c>
-      <c r="V18" s="17">
+      <c r="V18" s="18">
         <v>27</v>
       </c>
-      <c r="W18" s="17">
+      <c r="W18" s="18">
         <v>25</v>
       </c>
-      <c r="X18" s="17">
+      <c r="X18" s="18">
         <v>26</v>
       </c>
-      <c r="Y18" s="17"/>
-      <c r="Z18" s="17">
+      <c r="Y18" s="18"/>
+      <c r="Z18" s="18">
         <v>27</v>
       </c>
-      <c r="AA18" s="17"/>
-      <c r="AB18" s="17"/>
-      <c r="AC18" s="22"/>
+      <c r="AA18" s="18"/>
+      <c r="AB18" s="18"/>
+      <c r="AC18" s="13"/>
     </row>
     <row r="19" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B19" s="10" t="s">
@@ -1602,37 +1602,37 @@
       <c r="F19" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="20"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17">
+      <c r="G19" s="6"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18">
         <v>31</v>
       </c>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="17"/>
-      <c r="U19" s="17"/>
-      <c r="V19" s="17">
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="18"/>
+      <c r="V19" s="18">
         <v>28</v>
       </c>
-      <c r="W19" s="17"/>
-      <c r="X19" s="17"/>
-      <c r="Y19" s="17">
+      <c r="W19" s="18"/>
+      <c r="X19" s="18"/>
+      <c r="Y19" s="18">
         <v>29</v>
       </c>
-      <c r="Z19" s="17"/>
-      <c r="AA19" s="17">
+      <c r="Z19" s="18"/>
+      <c r="AA19" s="18">
         <v>30</v>
       </c>
-      <c r="AB19" s="17"/>
-      <c r="AC19" s="22"/>
+      <c r="AB19" s="18"/>
+      <c r="AC19" s="13"/>
     </row>
     <row r="20" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B20" s="10" t="s">
@@ -1647,31 +1647,31 @@
       <c r="F20" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="20"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
-      <c r="U20" s="17"/>
-      <c r="V20" s="17"/>
-      <c r="W20" s="17"/>
-      <c r="X20" s="17"/>
-      <c r="Y20" s="17"/>
-      <c r="Z20" s="17"/>
-      <c r="AA20" s="17"/>
-      <c r="AB20" s="17">
+      <c r="G20" s="6"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="18"/>
+      <c r="V20" s="18"/>
+      <c r="W20" s="18"/>
+      <c r="X20" s="18"/>
+      <c r="Y20" s="18"/>
+      <c r="Z20" s="18"/>
+      <c r="AA20" s="18"/>
+      <c r="AB20" s="18">
         <v>32</v>
       </c>
-      <c r="AC20" s="22"/>
+      <c r="AC20" s="13"/>
     </row>
     <row r="21" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="11" t="s">
@@ -1686,29 +1686,29 @@
       <c r="F21" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="24"/>
-      <c r="S21" s="24"/>
-      <c r="T21" s="24"/>
-      <c r="U21" s="24"/>
-      <c r="V21" s="24"/>
-      <c r="W21" s="24"/>
-      <c r="X21" s="24"/>
-      <c r="Y21" s="24"/>
-      <c r="Z21" s="24"/>
-      <c r="AA21" s="24"/>
-      <c r="AB21" s="24"/>
-      <c r="AC21" s="25">
+      <c r="G21" s="15"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="19"/>
+      <c r="V21" s="19"/>
+      <c r="W21" s="19"/>
+      <c r="X21" s="19"/>
+      <c r="Y21" s="19"/>
+      <c r="Z21" s="19"/>
+      <c r="AA21" s="19"/>
+      <c r="AB21" s="19"/>
+      <c r="AC21" s="16">
         <v>33</v>
       </c>
     </row>
